--- a/20180126_SmartCut/Meeting/20190412 Meeting/結構設計變數.xlsx
+++ b/20180126_SmartCut/Meeting/20190412 Meeting/結構設計變數.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -290,16 +290,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小</t>
-    </r>
+    <t>地震力小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震力中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震力大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,6 +334,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,7 +383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,22 +396,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,7 +706,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -707,18 +722,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -727,7 +742,7 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -750,7 +765,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>4</v>
       </c>
       <c r="D3" s="1">
@@ -759,13 +774,13 @@
       <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -776,7 +791,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>6</v>
       </c>
       <c r="D4" s="1">
@@ -785,13 +800,13 @@
       <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7">
         <v>4</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -802,14 +817,14 @@
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D5" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="3">
         <v>12</v>
@@ -818,8 +833,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="3"/>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="3">
         <v>20</v>
       </c>
